--- a/src/test/resources/hoevelaken-contacten_met_geo.xlsx
+++ b/src/test/resources/hoevelaken-contacten_met_geo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="261">
   <si>
     <t>E-mail adres</t>
   </si>
@@ -797,6 +797,12 @@
   </si>
   <si>
     <t>Latitude</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>Nederland</t>
   </si>
 </sst>
 </file>
@@ -1165,7 +1171,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P55"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -1235,6 +1241,9 @@
       <c r="P1" t="s" s="0">
         <v>258</v>
       </c>
+      <c r="Q1" t="s" s="0">
+        <v>259</v>
+      </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s" s="0">
@@ -1302,6 +1311,9 @@
       <c r="P3" t="n" s="0">
         <v>52.1709093</v>
       </c>
+      <c r="Q3" t="s" s="0">
+        <v>260</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s" s="0">
@@ -1346,6 +1358,9 @@
       <c r="P4" t="n" s="0">
         <v>52.1725387</v>
       </c>
+      <c r="Q4" t="s" s="0">
+        <v>260</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s" s="0">
@@ -1683,6 +1698,9 @@
       <c r="P18" t="n" s="0">
         <v>52.1711803</v>
       </c>
+      <c r="Q18" t="s" s="0">
+        <v>260</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s" s="0">
@@ -1793,6 +1811,9 @@
       <c r="P22" t="n" s="0">
         <v>52.1776832</v>
       </c>
+      <c r="Q22" t="s" s="0">
+        <v>260</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s" s="0">
@@ -1837,6 +1858,9 @@
       <c r="P23" t="n" s="0">
         <v>52.1727634</v>
       </c>
+      <c r="Q23" t="s" s="0">
+        <v>260</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s" s="0">
@@ -1881,6 +1905,9 @@
       <c r="P24" t="n" s="0">
         <v>52.1732139</v>
       </c>
+      <c r="Q24" t="s" s="0">
+        <v>260</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s" s="0">
@@ -1925,6 +1952,9 @@
       <c r="P25" t="n" s="0">
         <v>52.1729523</v>
       </c>
+      <c r="Q25" t="s" s="0">
+        <v>260</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s" s="0">
@@ -1969,6 +1999,9 @@
       <c r="P26" t="n" s="0">
         <v>52.1723316</v>
       </c>
+      <c r="Q26" t="s" s="0">
+        <v>260</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s" s="0">
@@ -2013,6 +2046,9 @@
       <c r="P27" t="n" s="0">
         <v>52.1716841</v>
       </c>
+      <c r="Q27" t="s" s="0">
+        <v>260</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s" s="0">
@@ -2057,6 +2093,9 @@
       <c r="P28" t="n" s="0">
         <v>52.1750668</v>
       </c>
+      <c r="Q28" t="s" s="0">
+        <v>260</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s" s="0">
@@ -2135,6 +2174,9 @@
       <c r="P31" t="n" s="0">
         <v>52.1716623</v>
       </c>
+      <c r="Q31" t="s" s="0">
+        <v>260</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s" s="0">
@@ -2179,6 +2221,9 @@
       <c r="P32" t="n" s="0">
         <v>52.1695281</v>
       </c>
+      <c r="Q32" t="s" s="0">
+        <v>260</v>
+      </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s" s="0">
@@ -2223,6 +2268,9 @@
       <c r="P33" t="n" s="0">
         <v>52.1724337</v>
       </c>
+      <c r="Q33" t="s" s="0">
+        <v>260</v>
+      </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s" s="0">
@@ -2281,6 +2329,9 @@
       <c r="P35" t="n" s="0">
         <v>52.1708737</v>
       </c>
+      <c r="Q35" t="s" s="0">
+        <v>260</v>
+      </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s" s="0">
@@ -2325,6 +2376,9 @@
       <c r="P36" t="n" s="0">
         <v>52.1707932</v>
       </c>
+      <c r="Q36" t="s" s="0">
+        <v>260</v>
+      </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s" s="0">
@@ -2369,6 +2423,9 @@
       <c r="P37" t="n" s="0">
         <v>52.1721765</v>
       </c>
+      <c r="Q37" t="s" s="0">
+        <v>260</v>
+      </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s" s="0">
@@ -2427,6 +2484,9 @@
       <c r="P39" t="n" s="0">
         <v>52.1719434</v>
       </c>
+      <c r="Q39" t="s" s="0">
+        <v>260</v>
+      </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s" s="0">
@@ -2471,6 +2531,9 @@
       <c r="P40" t="n" s="0">
         <v>52.1698034</v>
       </c>
+      <c r="Q40" t="s" s="0">
+        <v>260</v>
+      </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s" s="0">
@@ -2512,6 +2575,9 @@
       <c r="P41" t="n" s="0">
         <v>52.1759745</v>
       </c>
+      <c r="Q41" t="s" s="0">
+        <v>260</v>
+      </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s" s="0">
@@ -2556,6 +2622,9 @@
       <c r="P42" t="n" s="0">
         <v>52.1735702</v>
       </c>
+      <c r="Q42" t="s" s="0">
+        <v>260</v>
+      </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s" s="0">
@@ -2600,6 +2669,9 @@
       <c r="P43" t="n" s="0">
         <v>52.1724477</v>
       </c>
+      <c r="Q43" t="s" s="0">
+        <v>260</v>
+      </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s" s="0">
@@ -2644,6 +2716,9 @@
       <c r="P44" t="n" s="0">
         <v>52.1707143</v>
       </c>
+      <c r="Q44" t="s" s="0">
+        <v>260</v>
+      </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s" s="0">
@@ -2696,6 +2771,9 @@
       <c r="P46" t="n" s="0">
         <v>52.1729141</v>
       </c>
+      <c r="Q46" t="s" s="0">
+        <v>260</v>
+      </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s" s="0">
@@ -2808,6 +2886,9 @@
       <c r="P51" t="n" s="0">
         <v>52.1710308</v>
       </c>
+      <c r="Q51" t="s" s="0">
+        <v>260</v>
+      </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s" s="0">
@@ -2869,6 +2950,9 @@
       <c r="P53" t="n" s="0">
         <v>52.1708937</v>
       </c>
+      <c r="Q53" t="s" s="0">
+        <v>260</v>
+      </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s" s="0">
@@ -2929,6 +3013,9 @@
       </c>
       <c r="P55" t="n" s="0">
         <v>52.1735706</v>
+      </c>
+      <c r="Q55" t="s" s="0">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
